--- a/US/data/BTS/TRPT/TVT - Urban.xlsx
+++ b/US/data/BTS/TRPT/TVT - Urban.xlsx
@@ -433,16 +433,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47151</v>
+        <v>47134</v>
       </c>
       <c r="C4" t="n">
-        <v>94233</v>
+        <v>94232</v>
       </c>
       <c r="D4" t="n">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="E4" t="n">
-        <v>186476</v>
+        <v>186452</v>
       </c>
     </row>
     <row r="5">
@@ -452,16 +452,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>124482</v>
+        <v>124465</v>
       </c>
       <c r="C5" t="n">
-        <v>252210</v>
+        <v>252209</v>
       </c>
       <c r="D5" t="n">
-        <v>120224</v>
+        <v>120218</v>
       </c>
       <c r="E5" t="n">
-        <v>496916</v>
+        <v>496892</v>
       </c>
     </row>
     <row r="6">
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44831</v>
+        <v>44642</v>
       </c>
       <c r="C7" t="n">
-        <v>90387</v>
+        <v>90124</v>
       </c>
       <c r="D7" t="n">
-        <v>44102</v>
+        <v>44062</v>
       </c>
       <c r="E7" t="n">
-        <v>179320</v>
+        <v>178828</v>
       </c>
     </row>
     <row r="8">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48569</v>
+        <v>48555</v>
       </c>
       <c r="C8" t="n">
-        <v>98081</v>
+        <v>98076</v>
       </c>
       <c r="D8" t="n">
-        <v>47811</v>
+        <v>47806</v>
       </c>
       <c r="E8" t="n">
-        <v>194461</v>
+        <v>194436</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>98225</v>
       </c>
       <c r="D9" t="n">
-        <v>47605</v>
+        <v>47603</v>
       </c>
       <c r="E9" t="n">
-        <v>195255</v>
+        <v>195253</v>
       </c>
     </row>
     <row r="10">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142824</v>
+        <v>142621</v>
       </c>
       <c r="C10" t="n">
-        <v>286693</v>
+        <v>286425</v>
       </c>
       <c r="D10" t="n">
-        <v>139518</v>
+        <v>139471</v>
       </c>
       <c r="E10" t="n">
-        <v>569036</v>
+        <v>568517</v>
       </c>
     </row>
     <row r="11">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>267306</v>
+        <v>267086</v>
       </c>
       <c r="C12" t="n">
-        <v>538903</v>
+        <v>538634</v>
       </c>
       <c r="D12" t="n">
-        <v>259743</v>
+        <v>259689</v>
       </c>
       <c r="E12" t="n">
-        <v>1065952</v>
+        <v>1065409</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>50607</v>
       </c>
       <c r="C14" t="n">
-        <v>100733</v>
+        <v>100732</v>
       </c>
       <c r="D14" t="n">
         <v>48366</v>
       </c>
       <c r="E14" t="n">
-        <v>199706</v>
+        <v>199705</v>
       </c>
     </row>
     <row r="15">
@@ -640,13 +640,13 @@
         <v>47769</v>
       </c>
       <c r="C16" t="n">
-        <v>96338</v>
+        <v>96337</v>
       </c>
       <c r="D16" t="n">
         <v>46534</v>
       </c>
       <c r="E16" t="n">
-        <v>190641</v>
+        <v>190640</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>147136</v>
       </c>
       <c r="C17" t="n">
-        <v>296797</v>
+        <v>296795</v>
       </c>
       <c r="D17" t="n">
         <v>142143</v>
       </c>
       <c r="E17" t="n">
-        <v>586077</v>
+        <v>586075</v>
       </c>
     </row>
     <row r="18">
@@ -689,13 +689,13 @@
         <v>49486</v>
       </c>
       <c r="C19" t="n">
-        <v>99285</v>
+        <v>99281</v>
       </c>
       <c r="D19" t="n">
         <v>47603</v>
       </c>
       <c r="E19" t="n">
-        <v>196374</v>
+        <v>196370</v>
       </c>
     </row>
     <row r="20">
@@ -746,13 +746,13 @@
         <v>143269</v>
       </c>
       <c r="C22" t="n">
-        <v>286062</v>
+        <v>286058</v>
       </c>
       <c r="D22" t="n">
         <v>138004</v>
       </c>
       <c r="E22" t="n">
-        <v>567336</v>
+        <v>567332</v>
       </c>
     </row>
     <row r="23">
@@ -776,13 +776,13 @@
         <v>290406</v>
       </c>
       <c r="C24" t="n">
-        <v>582859</v>
+        <v>582853</v>
       </c>
       <c r="D24" t="n">
-        <v>280148</v>
+        <v>280147</v>
       </c>
       <c r="E24" t="n">
-        <v>1153412</v>
+        <v>1153406</v>
       </c>
     </row>
     <row r="25">
@@ -803,16 +803,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>557712</v>
+        <v>557492</v>
       </c>
       <c r="C26" t="n">
-        <v>1121762</v>
+        <v>1121487</v>
       </c>
       <c r="D26" t="n">
-        <v>539890</v>
+        <v>539836</v>
       </c>
       <c r="E26" t="n">
-        <v>2219364</v>
+        <v>2218816</v>
       </c>
     </row>
     <row r="27">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42122</v>
+        <v>42123</v>
       </c>
       <c r="C28" t="n">
-        <v>85186</v>
+        <v>85188</v>
       </c>
       <c r="D28" t="n">
-        <v>41416</v>
+        <v>41414</v>
       </c>
       <c r="E28" t="n">
         <v>168724</v>
@@ -851,10 +851,18 @@
           <t>2022Feb</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>41596</v>
+      </c>
+      <c r="C29" t="n">
+        <v>83936</v>
+      </c>
+      <c r="D29" t="n">
+        <v>40249</v>
+      </c>
+      <c r="E29" t="n">
+        <v>165781</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -862,10 +870,18 @@
           <t>2022Mar</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>49354</v>
+      </c>
+      <c r="C30" t="n">
+        <v>96904</v>
+      </c>
+      <c r="D30" t="n">
+        <v>46993</v>
+      </c>
+      <c r="E30" t="n">
+        <v>193251</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -874,16 +890,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42122</v>
+        <v>133073</v>
       </c>
       <c r="C31" t="n">
-        <v>85186</v>
+        <v>266027</v>
       </c>
       <c r="D31" t="n">
-        <v>41416</v>
+        <v>128656</v>
       </c>
       <c r="E31" t="n">
-        <v>168724</v>
+        <v>527756</v>
       </c>
     </row>
     <row r="32">
@@ -967,16 +983,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42122</v>
+        <v>133073</v>
       </c>
       <c r="C38" t="n">
-        <v>85186</v>
+        <v>266027</v>
       </c>
       <c r="D38" t="n">
-        <v>41416</v>
+        <v>128656</v>
       </c>
       <c r="E38" t="n">
-        <v>168724</v>
+        <v>527756</v>
       </c>
     </row>
     <row r="39">
@@ -1153,16 +1169,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>42122</v>
+        <v>133073</v>
       </c>
       <c r="C52" t="n">
-        <v>85186</v>
+        <v>266027</v>
       </c>
       <c r="D52" t="n">
-        <v>41416</v>
+        <v>128656</v>
       </c>
       <c r="E52" t="n">
-        <v>168724</v>
+        <v>527756</v>
       </c>
     </row>
     <row r="53">

--- a/US/data/BTS/TRPT/TVT - Urban.xlsx
+++ b/US/data/BTS/TRPT/TVT - Urban.xlsx
@@ -855,7 +855,7 @@
         <v>41596</v>
       </c>
       <c r="C29" t="n">
-        <v>83936</v>
+        <v>83935</v>
       </c>
       <c r="D29" t="n">
         <v>40249</v>
@@ -871,16 +871,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49354</v>
+        <v>49357</v>
       </c>
       <c r="C30" t="n">
-        <v>96904</v>
+        <v>96923</v>
       </c>
       <c r="D30" t="n">
-        <v>46993</v>
+        <v>46966</v>
       </c>
       <c r="E30" t="n">
-        <v>193251</v>
+        <v>193246</v>
       </c>
     </row>
     <row r="31">
@@ -890,16 +890,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133073</v>
+        <v>133076</v>
       </c>
       <c r="C31" t="n">
-        <v>266027</v>
+        <v>266046</v>
       </c>
       <c r="D31" t="n">
-        <v>128656</v>
+        <v>128629</v>
       </c>
       <c r="E31" t="n">
-        <v>527756</v>
+        <v>527750</v>
       </c>
     </row>
     <row r="32">
@@ -919,10 +919,18 @@
           <t>2022Apr</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>46188</v>
+      </c>
+      <c r="C33" t="n">
+        <v>91763</v>
+      </c>
+      <c r="D33" t="n">
+        <v>45097</v>
+      </c>
+      <c r="E33" t="n">
+        <v>183048</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -953,16 +961,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>46188</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>91763</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>45097</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>183048</v>
       </c>
     </row>
     <row r="37">
@@ -983,16 +991,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>133073</v>
+        <v>179263</v>
       </c>
       <c r="C38" t="n">
-        <v>266027</v>
+        <v>357809</v>
       </c>
       <c r="D38" t="n">
-        <v>128656</v>
+        <v>173726</v>
       </c>
       <c r="E38" t="n">
-        <v>527756</v>
+        <v>710798</v>
       </c>
     </row>
     <row r="39">
@@ -1169,16 +1177,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>133073</v>
+        <v>179263</v>
       </c>
       <c r="C52" t="n">
-        <v>266027</v>
+        <v>357809</v>
       </c>
       <c r="D52" t="n">
-        <v>128656</v>
+        <v>173726</v>
       </c>
       <c r="E52" t="n">
-        <v>527756</v>
+        <v>710798</v>
       </c>
     </row>
     <row r="53">
